--- a/joomla/blanqueria/arcoiris/Arcoiris2020.xlsx
+++ b/joomla/blanqueria/arcoiris/Arcoiris2020.xlsx
@@ -14879,6 +14879,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -14953,12 +14954,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -14974,19 +14975,19 @@
   </sheetPr>
   <dimension ref="A1:P1223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.41"/>
@@ -14996,7 +14997,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
